--- a/artfynd/A 9860-2021.xlsx
+++ b/artfynd/A 9860-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>472570</v>
+        <v>91819313</v>
       </c>
       <c r="B2" t="n">
-        <v>89544</v>
+        <v>77588</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,50 +692,41 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1503</v>
+        <v>864</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Lynge) Ahti</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Vittjåkk NW, Arvidsjaur, Pi lm</t>
+          <t>Vittjåkk-utv-Skällberget, Pi lm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>684408.3002810599</v>
+        <v>684133.0481581797</v>
       </c>
       <c r="R2" t="n">
-        <v>7279169.676257924</v>
+        <v>7279618.070918004</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -759,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2006-08-21</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -769,17 +760,12 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2006-08-21</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>privatägd skog som gränsar till Vittjåkk naturreservat</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -794,22 +780,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Olli Manninen</t>
+          <t>Sture Westerberg</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Olli Manninen, * Naturskyddare</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>337840</v>
+        <v>91819346</v>
       </c>
       <c r="B3" t="n">
-        <v>89405</v>
+        <v>56395</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -822,46 +808,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1204</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Vittjåkk NW, Arvidsjaur, Pi lm</t>
+          <t>Vittjåkk-utv-Skällberget, Pi lm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>684543.8996992595</v>
+        <v>684176.208749545</v>
       </c>
       <c r="R3" t="n">
-        <v>7279264.613956628</v>
+        <v>7279710.005867927</v>
       </c>
       <c r="S3" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -885,7 +862,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2006-08-21</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -895,17 +872,12 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2006-08-21</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>privatägd skog som gränsar till Vittjåkk naturreservat</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -920,22 +892,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Olli Manninen</t>
+          <t>Sture Westerberg</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Olli Manninen, * Naturskyddare</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>668189</v>
+        <v>91819335</v>
       </c>
       <c r="B4" t="n">
-        <v>90840</v>
+        <v>89392</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -948,46 +920,37 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2079</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Vittjåkk NW, Arvidsjaur, Pi lm</t>
+          <t>Vittjåkk-utv-Skällberget, Pi lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>684550.855196535</v>
+        <v>684188.1084152567</v>
       </c>
       <c r="R4" t="n">
-        <v>7279422.715782248</v>
+        <v>7279477.203088459</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1011,7 +974,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2006-08-21</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1021,17 +984,12 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2006-08-21</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>privatägd skog som gränsar till Vittjåkk naturreservat</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1046,22 +1004,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Olli Manninen</t>
+          <t>Sture Westerberg</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Olli Manninen, * Naturskyddare</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>472571</v>
+        <v>91819310</v>
       </c>
       <c r="B5" t="n">
-        <v>89544</v>
+        <v>56395</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1070,50 +1028,41 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1503</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Vittjåkk NW, Arvidsjaur, Pi lm</t>
+          <t>Vittjåkk-utv-Skällberget, Pi lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>684461.1650884821</v>
+        <v>684102.1115314056</v>
       </c>
       <c r="R5" t="n">
-        <v>7279161.425032284</v>
+        <v>7279399.132698147</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1137,7 +1086,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2006-08-21</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1147,17 +1096,12 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2006-08-21</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>privatägd skog som gränsar till Vittjåkk naturreservat</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1172,22 +1116,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Olli Manninen</t>
+          <t>Sture Westerberg</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Olli Manninen, * Naturskyddare</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16431045</v>
+        <v>337840</v>
       </c>
       <c r="B6" t="n">
-        <v>73686</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1200,37 +1144,46 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>308</v>
+        <v>1204</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Skällberget öst, Pi lm</t>
+          <t>Vittjåkk NW, Arvidsjaur, Pi lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>684421.2043769606</v>
+        <v>684543.8996992595</v>
       </c>
       <c r="R6" t="n">
-        <v>7279404.084628432</v>
+        <v>7279264.613956628</v>
       </c>
       <c r="S6" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1254,7 +1207,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2014-07-30</t>
+          <t>2006-08-21</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1264,7 +1217,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2014-07-30</t>
+          <t>2006-08-21</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1272,6 +1225,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC6" t="inlineStr">
+        <is>
+          <t>privatägd skog som gränsar till Vittjåkk naturreservat</t>
+        </is>
+      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1280,36 +1238,26 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
-      </c>
-      <c r="AL6" t="inlineStr">
-        <is>
-          <t>björk</t>
-        </is>
-      </c>
-      <c r="AO6" t="inlineStr">
-        <is>
-          <t>björk</t>
-        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Carin von Köhler</t>
+          <t>Olli Manninen</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Carin von Köhler</t>
+          <t>Olli Manninen, * Naturskyddare</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16431036</v>
+        <v>668189</v>
       </c>
       <c r="B7" t="n">
-        <v>78098</v>
+        <v>90840</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1322,37 +1270,46 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>6453</v>
+        <v>2079</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+          <t>(S.Lundell) Parmasto</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Skällberget öst, Pi lm</t>
+          <t>Vittjåkk NW, Arvidsjaur, Pi lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>684473.673591041</v>
+        <v>684550.855196535</v>
       </c>
       <c r="R7" t="n">
-        <v>7279121.55971929</v>
+        <v>7279422.715782248</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1376,7 +1333,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2014-07-30</t>
+          <t>2006-08-21</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1386,7 +1343,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2014-07-30</t>
+          <t>2006-08-21</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1394,6 +1351,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>privatägd skog som gränsar till Vittjåkk naturreservat</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
@@ -1402,36 +1364,26 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AL7" t="inlineStr">
-        <is>
-          <t>tallstubbe</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>tallstubbe</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Carin von Köhler</t>
+          <t>Olli Manninen</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Carin von Köhler</t>
+          <t>Olli Manninen, * Naturskyddare</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16431056</v>
+        <v>16431045</v>
       </c>
       <c r="B8" t="n">
-        <v>89410</v>
+        <v>73686</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1444,21 +1396,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>308</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1468,10 +1420,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>684397.2170595651</v>
+        <v>684421.2043769606</v>
       </c>
       <c r="R8" t="n">
-        <v>7279467.692597485</v>
+        <v>7279404.084628432</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1527,12 +1479,12 @@
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>björk</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>björk</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1550,10 +1502,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16431055</v>
+        <v>16431056</v>
       </c>
       <c r="B9" t="n">
-        <v>81236</v>
+        <v>89410</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1566,21 +1518,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1312</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1590,10 +1542,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>684390.3760803737</v>
+        <v>684397.2170595651</v>
       </c>
       <c r="R9" t="n">
-        <v>7279457.71497878</v>
+        <v>7279467.692597485</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1649,12 +1601,12 @@
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1672,10 +1624,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16431063</v>
+        <v>16431055</v>
       </c>
       <c r="B10" t="n">
-        <v>95525</v>
+        <v>81236</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1684,25 +1636,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>221941</v>
+        <v>1312</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1712,13 +1664,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>684466.4454955719</v>
+        <v>684390.3760803737</v>
       </c>
       <c r="R10" t="n">
-        <v>7279156.782348056</v>
+        <v>7279457.71497878</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1771,12 +1723,12 @@
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>mark</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>mark</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1790,11 +1742,7 @@
           <t>Carin von Köhler</t>
         </is>
       </c>
-      <c r="AY10" t="inlineStr">
-        <is>
-          <t>Forskningsresa i naturvårdens utmarker</t>
-        </is>
-      </c>
+      <c r="AY10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1920,10 +1868,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16431037</v>
+        <v>16431175</v>
       </c>
       <c r="B12" t="n">
-        <v>79433</v>
+        <v>77258</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1936,21 +1884,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1049</v>
+        <v>6446</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1960,10 +1908,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>684473.673591041</v>
+        <v>684329.4681229794</v>
       </c>
       <c r="R12" t="n">
-        <v>7279121.55971929</v>
+        <v>7279448.859080018</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -2008,23 +1956,29 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>Ev.Vågig flarnlav</t>
+        </is>
+      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>tallstubbe</t>
+          <t>tallbrandstubbe</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>tallstubbe</t>
+          <t>tallbrandstubbe</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -2042,10 +1996,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>16431175</v>
+        <v>91819368</v>
       </c>
       <c r="B13" t="n">
-        <v>77258</v>
+        <v>78098</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2058,37 +2012,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6446</v>
+        <v>6453</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Skällberget öst, Pi lm</t>
+          <t>Vittjåkk-utv-Skällberget, Pi lm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>684329.4681229794</v>
+        <v>684620.1929814619</v>
       </c>
       <c r="R13" t="n">
-        <v>7279448.859080018</v>
+        <v>7279651.162231859</v>
       </c>
       <c r="S13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2112,7 +2066,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2014-07-30</t>
+          <t>2020-10-14</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2122,7 +2076,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2014-07-30</t>
+          <t>2020-10-14</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2130,50 +2084,34 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC13" t="inlineStr">
-        <is>
-          <t>Ev.Vågig flarnlav</t>
-        </is>
-      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AL13" t="inlineStr">
-        <is>
-          <t>tallbrandstubbe</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>tallbrandstubbe</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Carin von Köhler</t>
+          <t>Sture Westerberg</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Carin von Köhler</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>91819335</v>
+        <v>91819369</v>
       </c>
       <c r="B14" t="n">
-        <v>89392</v>
+        <v>89388</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2186,21 +2124,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>1108</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2210,10 +2148,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>684188.1084152567</v>
+        <v>684394.8580797296</v>
       </c>
       <c r="R14" t="n">
-        <v>7279477.203088459</v>
+        <v>7279543.877566063</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2240,7 +2178,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2020-10-14</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2250,7 +2188,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2020-10-14</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2282,10 +2220,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>91819326</v>
+        <v>91819366</v>
       </c>
       <c r="B15" t="n">
-        <v>89545</v>
+        <v>77506</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2294,25 +2232,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1503</v>
+        <v>6425</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2322,10 +2260,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>684036.9637687933</v>
+        <v>684664.0474651721</v>
       </c>
       <c r="R15" t="n">
-        <v>7279653.031989446</v>
+        <v>7279517.055013495</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2352,7 +2290,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2020-10-14</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2362,7 +2300,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2020-10-14</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2394,10 +2332,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>91819313</v>
+        <v>91819349</v>
       </c>
       <c r="B16" t="n">
-        <v>77588</v>
+        <v>77506</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2410,21 +2348,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>864</v>
+        <v>6425</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2434,10 +2372,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>684133.0481581797</v>
+        <v>684257.994456856</v>
       </c>
       <c r="R16" t="n">
-        <v>7279618.070918004</v>
+        <v>7279331.878464147</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2506,10 +2444,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>91819368</v>
+        <v>91819354</v>
       </c>
       <c r="B17" t="n">
-        <v>78098</v>
+        <v>56311</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2522,21 +2460,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6453</v>
+        <v>100067</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Haliaeetus albicilla</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2546,10 +2484,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>684620.1929814619</v>
+        <v>684487.9348332323</v>
       </c>
       <c r="R17" t="n">
-        <v>7279651.162231859</v>
+        <v>7279843.097565955</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2618,10 +2556,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>91819369</v>
+        <v>91819367</v>
       </c>
       <c r="B18" t="n">
-        <v>89388</v>
+        <v>89633</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2630,25 +2568,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1108</v>
+        <v>65</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2658,10 +2596,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>684394.8580797296</v>
+        <v>684617.1031719501</v>
       </c>
       <c r="R18" t="n">
-        <v>7279543.877566063</v>
+        <v>7279706.139632354</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2730,10 +2668,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>91819366</v>
+        <v>472570</v>
       </c>
       <c r="B19" t="n">
-        <v>77506</v>
+        <v>89544</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2742,41 +2680,50 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>1503</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr"/>
+          <t>(P.Karst.) Miettinen</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Vittjåkk-utv-Skällberget, Pi lm</t>
+          <t>Vittjåkk NW, Arvidsjaur, Pi lm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>684664.0474651721</v>
+        <v>684408.3002810599</v>
       </c>
       <c r="R19" t="n">
-        <v>7279517.055013495</v>
+        <v>7279169.676257924</v>
       </c>
       <c r="S19" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2800,7 +2747,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2020-10-14</t>
+          <t>2006-08-21</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2810,12 +2757,17 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2020-10-14</t>
+          <t>2006-08-21</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>privatägd skog som gränsar till Vittjåkk naturreservat</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2830,22 +2782,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Sture Westerberg</t>
+          <t>Olli Manninen</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Jonas Nordenström</t>
+          <t>Olli Manninen, * Naturskyddare</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>91819310</v>
+        <v>472571</v>
       </c>
       <c r="B20" t="n">
-        <v>56395</v>
+        <v>89544</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2854,41 +2806,50 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>1503</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr"/>
+          <t>(P.Karst.) Miettinen</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Vittjåkk-utv-Skällberget, Pi lm</t>
+          <t>Vittjåkk NW, Arvidsjaur, Pi lm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>684102.1115314056</v>
+        <v>684461.1650884821</v>
       </c>
       <c r="R20" t="n">
-        <v>7279399.132698147</v>
+        <v>7279161.425032284</v>
       </c>
       <c r="S20" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2912,7 +2873,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2006-08-21</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2922,12 +2883,17 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2006-08-21</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC20" t="inlineStr">
+        <is>
+          <t>privatägd skog som gränsar till Vittjåkk naturreservat</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2942,22 +2908,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Sture Westerberg</t>
+          <t>Olli Manninen</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Jonas Nordenström</t>
+          <t>Olli Manninen, * Naturskyddare</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>91819346</v>
+        <v>16431036</v>
       </c>
       <c r="B21" t="n">
-        <v>56395</v>
+        <v>78098</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2970,37 +2936,37 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6453</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Vittjåkk-utv-Skällberget, Pi lm</t>
+          <t>Skällberget öst, Pi lm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>684176.208749545</v>
+        <v>684473.673591041</v>
       </c>
       <c r="R21" t="n">
-        <v>7279710.005867927</v>
+        <v>7279121.55971929</v>
       </c>
       <c r="S21" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -3024,7 +2990,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2014-07-30</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3034,7 +3000,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2014-07-30</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3050,26 +3016,36 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AL21" t="inlineStr">
+        <is>
+          <t>tallstubbe</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>tallstubbe</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Sture Westerberg</t>
+          <t>Carin von Köhler</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Jonas Nordenström</t>
+          <t>Carin von Köhler</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>91819349</v>
+        <v>16431063</v>
       </c>
       <c r="B22" t="n">
-        <v>77506</v>
+        <v>95525</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3078,41 +3054,41 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>221941</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Vittjåkk-utv-Skällberget, Pi lm</t>
+          <t>Skällberget öst, Pi lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>684257.994456856</v>
+        <v>684466.4454955719</v>
       </c>
       <c r="R22" t="n">
-        <v>7279331.878464147</v>
+        <v>7279156.782348056</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3136,7 +3112,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2014-07-30</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3146,7 +3122,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2014-07-30</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3162,26 +3138,40 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>mark</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>mark</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Sture Westerberg</t>
+          <t>Carin von Köhler</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Jonas Nordenström</t>
-        </is>
-      </c>
-      <c r="AY22" t="inlineStr"/>
+          <t>Carin von Köhler</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr">
+        <is>
+          <t>Forskningsresa i naturvårdens utmarker</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>91819354</v>
+        <v>16431037</v>
       </c>
       <c r="B23" t="n">
-        <v>56311</v>
+        <v>79433</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3194,37 +3184,37 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100067</v>
+        <v>1049</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Haliaeetus albicilla</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Vittjåkk-utv-Skällberget, Pi lm</t>
+          <t>Skällberget öst, Pi lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>684487.9348332323</v>
+        <v>684473.673591041</v>
       </c>
       <c r="R23" t="n">
-        <v>7279843.097565955</v>
+        <v>7279121.55971929</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3248,7 +3238,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2020-10-14</t>
+          <t>2014-07-30</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3258,7 +3248,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2020-10-14</t>
+          <t>2014-07-30</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3274,26 +3264,36 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AL23" t="inlineStr">
+        <is>
+          <t>tallstubbe</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>tallstubbe</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Sture Westerberg</t>
+          <t>Carin von Köhler</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Jonas Nordenström</t>
+          <t>Carin von Köhler</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>91819367</v>
+        <v>91819326</v>
       </c>
       <c r="B24" t="n">
-        <v>89633</v>
+        <v>89545</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3306,21 +3306,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>65</v>
+        <v>1503</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3330,10 +3330,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>684617.1031719501</v>
+        <v>684036.9637687933</v>
       </c>
       <c r="R24" t="n">
-        <v>7279706.139632354</v>
+        <v>7279653.031989446</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2020-10-14</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3370,7 +3370,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2020-10-14</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">

--- a/artfynd/A 9860-2021.xlsx
+++ b/artfynd/A 9860-2021.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>91819313</v>
+        <v>472570</v>
       </c>
       <c r="B2" t="n">
-        <v>77588</v>
+        <v>89544</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,41 +692,50 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>864</v>
+        <v>1503</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Knottrig blåslav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hypogymnia bitteri</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Lynge) Ahti</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>(P.Karst.) Miettinen</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Vittjåkk-utv-Skällberget, Pi lm</t>
+          <t>Vittjåkk NW, Arvidsjaur, Pi lm</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>684133.0481581797</v>
+        <v>684408.3002810599</v>
       </c>
       <c r="R2" t="n">
-        <v>7279618.070918004</v>
+        <v>7279169.676257924</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +759,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2006-08-21</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,12 +769,17 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2006-08-21</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>privatägd skog som gränsar till Vittjåkk naturreservat</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -780,22 +794,22 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Sture Westerberg</t>
+          <t>Olli Manninen</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Jonas Nordenström</t>
+          <t>Olli Manninen, * Naturskyddare</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>91819346</v>
+        <v>337840</v>
       </c>
       <c r="B3" t="n">
-        <v>56395</v>
+        <v>89405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,37 +822,46 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>1204</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Vittjåkk-utv-Skällberget, Pi lm</t>
+          <t>Vittjåkk NW, Arvidsjaur, Pi lm</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>684176.208749545</v>
+        <v>684543.8996992595</v>
       </c>
       <c r="R3" t="n">
-        <v>7279710.005867927</v>
+        <v>7279264.613956628</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -862,7 +885,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2006-08-21</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -872,12 +895,17 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2006-08-21</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>privatägd skog som gränsar till Vittjåkk naturreservat</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -892,22 +920,22 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Sture Westerberg</t>
+          <t>Olli Manninen</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Jonas Nordenström</t>
+          <t>Olli Manninen, * Naturskyddare</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>91819335</v>
+        <v>668189</v>
       </c>
       <c r="B4" t="n">
-        <v>89392</v>
+        <v>90840</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -920,37 +948,46 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>2079</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>(S.Lundell) Parmasto</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Vittjåkk-utv-Skällberget, Pi lm</t>
+          <t>Vittjåkk NW, Arvidsjaur, Pi lm</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>684188.1084152567</v>
+        <v>684550.855196535</v>
       </c>
       <c r="R4" t="n">
-        <v>7279477.203088459</v>
+        <v>7279422.715782248</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -974,7 +1011,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2006-08-21</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -984,12 +1021,17 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2006-08-21</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>privatägd skog som gränsar till Vittjåkk naturreservat</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1004,22 +1046,22 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Sture Westerberg</t>
+          <t>Olli Manninen</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Jonas Nordenström</t>
+          <t>Olli Manninen, * Naturskyddare</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>91819310</v>
+        <v>472571</v>
       </c>
       <c r="B5" t="n">
-        <v>56395</v>
+        <v>89544</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1028,41 +1070,50 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>1503</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>(P.Karst.) Miettinen</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Vittjåkk-utv-Skällberget, Pi lm</t>
+          <t>Vittjåkk NW, Arvidsjaur, Pi lm</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>684102.1115314056</v>
+        <v>684461.1650884821</v>
       </c>
       <c r="R5" t="n">
-        <v>7279399.132698147</v>
+        <v>7279161.425032284</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1086,7 +1137,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2006-08-21</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1096,12 +1147,17 @@
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2006-08-21</t>
         </is>
       </c>
       <c r="AB5" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>privatägd skog som gränsar till Vittjåkk naturreservat</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1116,22 +1172,22 @@
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
         <is>
-          <t>Sture Westerberg</t>
+          <t>Olli Manninen</t>
         </is>
       </c>
       <c r="AX5" t="inlineStr">
         <is>
-          <t>Jonas Nordenström</t>
+          <t>Olli Manninen, * Naturskyddare</t>
         </is>
       </c>
       <c r="AY5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>337840</v>
+        <v>16431045</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>73686</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1144,46 +1200,37 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1204</v>
+        <v>308</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Brunpudrad nållav</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Chaenotheca gracillima</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Vain.) Tibell</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Vittjåkk NW, Arvidsjaur, Pi lm</t>
+          <t>Skällberget öst, Pi lm</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>684543.8996992595</v>
+        <v>684421.2043769606</v>
       </c>
       <c r="R6" t="n">
-        <v>7279264.613956628</v>
+        <v>7279404.084628432</v>
       </c>
       <c r="S6" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T6" t="inlineStr">
         <is>
@@ -1207,7 +1254,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2006-08-21</t>
+          <t>2014-07-30</t>
         </is>
       </c>
       <c r="Z6" t="inlineStr">
@@ -1217,7 +1264,7 @@
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2006-08-21</t>
+          <t>2014-07-30</t>
         </is>
       </c>
       <c r="AB6" t="inlineStr">
@@ -1225,11 +1272,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>privatägd skog som gränsar till Vittjåkk naturreservat</t>
-        </is>
-      </c>
       <c r="AD6" t="b">
         <v>0</v>
       </c>
@@ -1238,26 +1280,36 @@
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AL6" t="inlineStr">
+        <is>
+          <t>björk</t>
+        </is>
+      </c>
+      <c r="AO6" t="inlineStr">
+        <is>
+          <t>björk</t>
+        </is>
       </c>
       <c r="AT6" t="inlineStr"/>
       <c r="AW6" t="inlineStr">
         <is>
-          <t>Olli Manninen</t>
+          <t>Carin von Köhler</t>
         </is>
       </c>
       <c r="AX6" t="inlineStr">
         <is>
-          <t>Olli Manninen, * Naturskyddare</t>
+          <t>Carin von Köhler</t>
         </is>
       </c>
       <c r="AY6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>668189</v>
+        <v>16431036</v>
       </c>
       <c r="B7" t="n">
-        <v>90840</v>
+        <v>78098</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1270,46 +1322,37 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2079</v>
+        <v>6453</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Vittjåkk NW, Arvidsjaur, Pi lm</t>
+          <t>Skällberget öst, Pi lm</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>684550.855196535</v>
+        <v>684473.673591041</v>
       </c>
       <c r="R7" t="n">
-        <v>7279422.715782248</v>
+        <v>7279121.55971929</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1333,7 +1376,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2006-08-21</t>
+          <t>2014-07-30</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1343,7 +1386,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2006-08-21</t>
+          <t>2014-07-30</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1351,11 +1394,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>privatägd skog som gränsar till Vittjåkk naturreservat</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
@@ -1364,26 +1402,36 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AL7" t="inlineStr">
+        <is>
+          <t>tallstubbe</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>tallstubbe</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Olli Manninen</t>
+          <t>Carin von Köhler</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Olli Manninen, * Naturskyddare</t>
+          <t>Carin von Köhler</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>16431045</v>
+        <v>16431056</v>
       </c>
       <c r="B8" t="n">
-        <v>73686</v>
+        <v>89410</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1396,21 +1444,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>308</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Brunpudrad nållav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Chaenotheca gracillima</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1420,10 +1468,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>684421.2043769606</v>
+        <v>684397.2170595651</v>
       </c>
       <c r="R8" t="n">
-        <v>7279404.084628432</v>
+        <v>7279467.692597485</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1479,12 +1527,12 @@
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>björk</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>björk</t>
+          <t>granlåga</t>
         </is>
       </c>
       <c r="AT8" t="inlineStr"/>
@@ -1502,10 +1550,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>16431056</v>
+        <v>16431055</v>
       </c>
       <c r="B9" t="n">
-        <v>89410</v>
+        <v>81236</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1518,21 +1566,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>1312</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Gammelgransskål</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Pseudographis pinicola</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Nyl.) Rehm</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1542,10 +1590,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>684397.2170595651</v>
+        <v>684390.3760803737</v>
       </c>
       <c r="R9" t="n">
-        <v>7279467.692597485</v>
+        <v>7279457.71497878</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1601,12 +1649,12 @@
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>granlåga</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AT9" t="inlineStr"/>
@@ -1624,10 +1672,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16431055</v>
+        <v>16431063</v>
       </c>
       <c r="B10" t="n">
-        <v>81236</v>
+        <v>95525</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1636,25 +1684,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1312</v>
+        <v>221941</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Gammelgransskål</t>
+          <t>Plattlummer</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Pseudographis pinicola</t>
+          <t>Lycopodium complanatum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nyl.) Rehm</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1664,13 +1712,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>684390.3760803737</v>
+        <v>684466.4454955719</v>
       </c>
       <c r="R10" t="n">
-        <v>7279457.71497878</v>
+        <v>7279156.782348056</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1723,12 +1771,12 @@
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>mark</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>mark</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1742,7 +1790,11 @@
           <t>Carin von Köhler</t>
         </is>
       </c>
-      <c r="AY10" t="inlineStr"/>
+      <c r="AY10" t="inlineStr">
+        <is>
+          <t>Forskningsresa i naturvårdens utmarker</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1868,10 +1920,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>16431175</v>
+        <v>16431037</v>
       </c>
       <c r="B12" t="n">
-        <v>77258</v>
+        <v>79433</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1884,21 +1936,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6446</v>
+        <v>1049</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1908,10 +1960,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>684329.4681229794</v>
+        <v>684473.673591041</v>
       </c>
       <c r="R12" t="n">
-        <v>7279448.859080018</v>
+        <v>7279121.55971929</v>
       </c>
       <c r="S12" t="n">
         <v>5</v>
@@ -1956,29 +2008,23 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>Ev.Vågig flarnlav</t>
-        </is>
-      </c>
       <c r="AD12" t="b">
         <v>0</v>
       </c>
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
       <c r="AL12" t="inlineStr">
         <is>
-          <t>tallbrandstubbe</t>
+          <t>tallstubbe</t>
         </is>
       </c>
       <c r="AO12" t="inlineStr">
         <is>
-          <t>tallbrandstubbe</t>
+          <t>tallstubbe</t>
         </is>
       </c>
       <c r="AT12" t="inlineStr"/>
@@ -1996,10 +2042,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>91819368</v>
+        <v>16431175</v>
       </c>
       <c r="B13" t="n">
-        <v>78098</v>
+        <v>77258</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2012,37 +2058,37 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Vittjåkk-utv-Skällberget, Pi lm</t>
+          <t>Skällberget öst, Pi lm</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>684620.1929814619</v>
+        <v>684329.4681229794</v>
       </c>
       <c r="R13" t="n">
-        <v>7279651.162231859</v>
+        <v>7279448.859080018</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2066,7 +2112,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>2020-10-14</t>
+          <t>2014-07-30</t>
         </is>
       </c>
       <c r="Z13" t="inlineStr">
@@ -2076,7 +2122,7 @@
       </c>
       <c r="AA13" t="inlineStr">
         <is>
-          <t>2020-10-14</t>
+          <t>2014-07-30</t>
         </is>
       </c>
       <c r="AB13" t="inlineStr">
@@ -2084,34 +2130,50 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC13" t="inlineStr">
+        <is>
+          <t>Ev.Vågig flarnlav</t>
+        </is>
+      </c>
       <c r="AD13" t="b">
         <v>0</v>
       </c>
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AL13" t="inlineStr">
+        <is>
+          <t>tallbrandstubbe</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>tallbrandstubbe</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
         <is>
-          <t>Sture Westerberg</t>
+          <t>Carin von Köhler</t>
         </is>
       </c>
       <c r="AX13" t="inlineStr">
         <is>
-          <t>Jonas Nordenström</t>
+          <t>Carin von Köhler</t>
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>91819369</v>
+        <v>91819335</v>
       </c>
       <c r="B14" t="n">
-        <v>89388</v>
+        <v>89392</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2124,21 +2186,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1108</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2148,10 +2210,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>684394.8580797296</v>
+        <v>684188.1084152567</v>
       </c>
       <c r="R14" t="n">
-        <v>7279543.877566063</v>
+        <v>7279477.203088459</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2178,7 +2240,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2020-10-14</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="Z14" t="inlineStr">
@@ -2188,7 +2250,7 @@
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2020-10-14</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="AB14" t="inlineStr">
@@ -2220,10 +2282,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>91819366</v>
+        <v>91819326</v>
       </c>
       <c r="B15" t="n">
-        <v>77506</v>
+        <v>89545</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2232,25 +2294,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>6425</v>
+        <v>1503</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2260,10 +2322,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>684664.0474651721</v>
+        <v>684036.9637687933</v>
       </c>
       <c r="R15" t="n">
-        <v>7279517.055013495</v>
+        <v>7279653.031989446</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2290,7 +2352,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2020-10-14</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -2300,7 +2362,7 @@
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2020-10-14</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="AB15" t="inlineStr">
@@ -2332,10 +2394,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>91819349</v>
+        <v>91819313</v>
       </c>
       <c r="B16" t="n">
-        <v>77506</v>
+        <v>77588</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2348,21 +2410,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6425</v>
+        <v>864</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knottrig blåslav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia bitteri</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Lynge) Ahti</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2372,10 +2434,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>684257.994456856</v>
+        <v>684133.0481581797</v>
       </c>
       <c r="R16" t="n">
-        <v>7279331.878464147</v>
+        <v>7279618.070918004</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2444,10 +2506,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>91819354</v>
+        <v>91819368</v>
       </c>
       <c r="B17" t="n">
-        <v>56311</v>
+        <v>78098</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2460,21 +2522,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100067</v>
+        <v>6453</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Haliaeetus albicilla</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2484,10 +2546,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>684487.9348332323</v>
+        <v>684620.1929814619</v>
       </c>
       <c r="R17" t="n">
-        <v>7279843.097565955</v>
+        <v>7279651.162231859</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2556,10 +2618,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>91819367</v>
+        <v>91819369</v>
       </c>
       <c r="B18" t="n">
-        <v>89633</v>
+        <v>89388</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2568,25 +2630,25 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>65</v>
+        <v>1108</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Fläckporing</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Anthoporia albobrunnea</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Romell) Karasiński &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
@@ -2596,10 +2658,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>684617.1031719501</v>
+        <v>684394.8580797296</v>
       </c>
       <c r="R18" t="n">
-        <v>7279706.139632354</v>
+        <v>7279543.877566063</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2668,10 +2730,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>472570</v>
+        <v>91819366</v>
       </c>
       <c r="B19" t="n">
-        <v>89544</v>
+        <v>77506</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2680,50 +2742,41 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1503</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Vittjåkk NW, Arvidsjaur, Pi lm</t>
+          <t>Vittjåkk-utv-Skällberget, Pi lm</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>684408.3002810599</v>
+        <v>684664.0474651721</v>
       </c>
       <c r="R19" t="n">
-        <v>7279169.676257924</v>
+        <v>7279517.055013495</v>
       </c>
       <c r="S19" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T19" t="inlineStr">
         <is>
@@ -2747,7 +2800,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2006-08-21</t>
+          <t>2020-10-14</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -2757,17 +2810,12 @@
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2006-08-21</t>
+          <t>2020-10-14</t>
         </is>
       </c>
       <c r="AB19" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC19" t="inlineStr">
-        <is>
-          <t>privatägd skog som gränsar till Vittjåkk naturreservat</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2782,22 +2830,22 @@
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
         <is>
-          <t>Olli Manninen</t>
+          <t>Sture Westerberg</t>
         </is>
       </c>
       <c r="AX19" t="inlineStr">
         <is>
-          <t>Olli Manninen, * Naturskyddare</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AY19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>472571</v>
+        <v>91819310</v>
       </c>
       <c r="B20" t="n">
-        <v>89544</v>
+        <v>56395</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2806,50 +2854,41 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1503</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>fruktkroppar</t>
-        </is>
-      </c>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Vittjåkk NW, Arvidsjaur, Pi lm</t>
+          <t>Vittjåkk-utv-Skällberget, Pi lm</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>684461.1650884821</v>
+        <v>684102.1115314056</v>
       </c>
       <c r="R20" t="n">
-        <v>7279161.425032284</v>
+        <v>7279399.132698147</v>
       </c>
       <c r="S20" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T20" t="inlineStr">
         <is>
@@ -2873,7 +2912,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2006-08-21</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
@@ -2883,17 +2922,12 @@
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2006-08-21</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="AB20" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC20" t="inlineStr">
-        <is>
-          <t>privatägd skog som gränsar till Vittjåkk naturreservat</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2908,22 +2942,22 @@
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
         <is>
-          <t>Olli Manninen</t>
+          <t>Sture Westerberg</t>
         </is>
       </c>
       <c r="AX20" t="inlineStr">
         <is>
-          <t>Olli Manninen, * Naturskyddare</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AY20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>16431036</v>
+        <v>91819346</v>
       </c>
       <c r="B21" t="n">
-        <v>78098</v>
+        <v>56395</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2936,37 +2970,37 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6453</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Skällberget öst, Pi lm</t>
+          <t>Vittjåkk-utv-Skällberget, Pi lm</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>684473.673591041</v>
+        <v>684176.208749545</v>
       </c>
       <c r="R21" t="n">
-        <v>7279121.55971929</v>
+        <v>7279710.005867927</v>
       </c>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T21" t="inlineStr">
         <is>
@@ -2990,7 +3024,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>2014-07-30</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -3000,7 +3034,7 @@
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>2014-07-30</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="AB21" t="inlineStr">
@@ -3016,36 +3050,26 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AL21" t="inlineStr">
-        <is>
-          <t>tallstubbe</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>tallstubbe</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
         <is>
-          <t>Carin von Köhler</t>
+          <t>Sture Westerberg</t>
         </is>
       </c>
       <c r="AX21" t="inlineStr">
         <is>
-          <t>Carin von Köhler</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AY21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>16431063</v>
+        <v>91819349</v>
       </c>
       <c r="B22" t="n">
-        <v>95525</v>
+        <v>77506</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3054,41 +3078,41 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>221941</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Plattlummer</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Lycopodium complanatum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Skällberget öst, Pi lm</t>
+          <t>Vittjåkk-utv-Skällberget, Pi lm</t>
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>684466.4454955719</v>
+        <v>684257.994456856</v>
       </c>
       <c r="R22" t="n">
-        <v>7279156.782348056</v>
+        <v>7279331.878464147</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3112,7 +3136,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>2014-07-30</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
@@ -3122,7 +3146,7 @@
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>2014-07-30</t>
+          <t>2020-10-16</t>
         </is>
       </c>
       <c r="AB22" t="inlineStr">
@@ -3138,40 +3162,26 @@
       </c>
       <c r="AG22" t="b">
         <v>0</v>
-      </c>
-      <c r="AL22" t="inlineStr">
-        <is>
-          <t>mark</t>
-        </is>
-      </c>
-      <c r="AO22" t="inlineStr">
-        <is>
-          <t>mark</t>
-        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
         <is>
-          <t>Carin von Köhler</t>
+          <t>Sture Westerberg</t>
         </is>
       </c>
       <c r="AX22" t="inlineStr">
         <is>
-          <t>Carin von Köhler</t>
-        </is>
-      </c>
-      <c r="AY22" t="inlineStr">
-        <is>
-          <t>Forskningsresa i naturvårdens utmarker</t>
-        </is>
-      </c>
+          <t>Jonas Nordenström</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>16431037</v>
+        <v>91819354</v>
       </c>
       <c r="B23" t="n">
-        <v>79433</v>
+        <v>56311</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3184,37 +3194,37 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1049</v>
+        <v>100067</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Haliaeetus albicilla</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Skällberget öst, Pi lm</t>
+          <t>Vittjåkk-utv-Skällberget, Pi lm</t>
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>684473.673591041</v>
+        <v>684487.9348332323</v>
       </c>
       <c r="R23" t="n">
-        <v>7279121.55971929</v>
+        <v>7279843.097565955</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3238,7 +3248,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>2014-07-30</t>
+          <t>2020-10-14</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
@@ -3248,7 +3258,7 @@
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>2014-07-30</t>
+          <t>2020-10-14</t>
         </is>
       </c>
       <c r="AB23" t="inlineStr">
@@ -3264,36 +3274,26 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
-      </c>
-      <c r="AL23" t="inlineStr">
-        <is>
-          <t>tallstubbe</t>
-        </is>
-      </c>
-      <c r="AO23" t="inlineStr">
-        <is>
-          <t>tallstubbe</t>
-        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
         <is>
-          <t>Carin von Köhler</t>
+          <t>Sture Westerberg</t>
         </is>
       </c>
       <c r="AX23" t="inlineStr">
         <is>
-          <t>Carin von Köhler</t>
+          <t>Jonas Nordenström</t>
         </is>
       </c>
       <c r="AY23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>91819326</v>
+        <v>91819367</v>
       </c>
       <c r="B24" t="n">
-        <v>89545</v>
+        <v>89633</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3306,21 +3306,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1503</v>
+        <v>65</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Fläckporing</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Anthoporia albobrunnea</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Romell) Karasiński &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3330,10 +3330,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>684036.9637687933</v>
+        <v>684617.1031719501</v>
       </c>
       <c r="R24" t="n">
-        <v>7279653.031989446</v>
+        <v>7279706.139632354</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2020-10-14</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
@@ -3370,7 +3370,7 @@
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2020-10-14</t>
         </is>
       </c>
       <c r="AB24" t="inlineStr">
